--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_28_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_28_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65230.13097555374</v>
+        <v>12820722.57229269</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65230.13097555374</v>
+        <v>12820722.57229269</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>191413.3705110191</v>
+        <v>22018978.9514351</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>191413.3705110191</v>
+        <v>22018978.9514351</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1415766740.636354</v>
+        <v>33410000.87982854</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16904.74067505296</v>
+        <v>863067.1708044019</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32233.68335492605</v>
+        <v>1488494.063485048</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47625.67861849927</v>
+        <v>2113920.956165694</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62459.17047400513</v>
+        <v>2739110.715615121</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>77293.16379310463</v>
+        <v>3364353.630205472</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>92127.15711220414</v>
+        <v>3989596.544795821</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>106911.8350555456</v>
+        <v>4849593.531977763</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>121368.9489090307</v>
+        <v>5644451.901392519</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>135875.3781382735</v>
+        <v>6204556.198215778</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>150709.3714573718</v>
+        <v>6829799.11280634</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>165543.3647764698</v>
+        <v>7455042.027396855</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>180377.3580955674</v>
+        <v>8080284.941987469</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>195211.3514146648</v>
+        <v>8705527.856578058</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>210865.7273385654</v>
+        <v>9150545.769068357</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>226486.4582202618</v>
+        <v>9464713.554231711</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>132.0000000000115</v>
@@ -27052,7 +27052,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>18.99999999998829</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>295</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>295</v>
